--- a/medicine/Psychotrope/Au_bistro_du_coin/Au_bistro_du_coin.xlsx
+++ b/medicine/Psychotrope/Au_bistro_du_coin/Au_bistro_du_coin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au bistro du coin est un film français réalisé par Charles Nemes et sorti en 2011.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les habitants d'un quartier mettent en place un spectacle caritatif dans un bistro.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Réalisation : Charles Nemes
@@ -555,13 +571,13 @@
 Photographie : Jean-Pierre Sauvaire
 Décors : Arnaud Roth
 Cascades : Rémi Canaple
-Budget : 3 M€[1]
+Budget : 3 M€
 Pays d'origine :  France
 Langue originale : français
 Format : couleur, 2.35:1
 Durée : 80 minutes
 Date de sortie : 16 mars 2011
-Box-office France : 24 241 entrées[2]
+Box-office France : 24 241 entrées
 </t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fred Testot : Manu
@@ -674,9 +692,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a la particularité d'être doublé en sept langues régionales : alsacien, basque, breton, picard, corse, créole et occitan[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a la particularité d'être doublé en sept langues régionales : alsacien, basque, breton, picard, corse, créole et occitan.
 </t>
         </is>
       </c>
